--- a/biology/Botanique/Falcaria_vulgaris/Falcaria_vulgaris.xlsx
+++ b/biology/Botanique/Falcaria_vulgaris/Falcaria_vulgaris.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Falcaire commune
 La falcaire commune (Falcaria vulgaris) est une espèce de plantes de la famille des Apiaceae.
@@ -512,7 +524,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Plantes herbacées de 40 à 80cm de hauteur.
 </t>
@@ -543,7 +557,9 @@
           <t>Biologie</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Hémicryptophyte. Floraison de juin à juillet.
 </t>
@@ -574,9 +590,11 @@
           <t>Distribution géographique</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Europe méridionale, centrale et orientale, Asie sud-occidentale et centrale, Afrique du Nord[1].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Europe méridionale, centrale et orientale, Asie sud-occidentale et centrale, Afrique du Nord.
 </t>
         </is>
       </c>
@@ -605,7 +623,9 @@
           <t>Habitats</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Moissons, talus, friches, bords de chemins, luzernières.
 </t>
@@ -636,7 +656,9 @@
           <t>Synonyme</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t>Sium  falcaria  L.
 Falcaria  rivini  Host</t>
